--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Classes\Aircraft Dynamics\Aircraft-Dynamics-Materials\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE57C12-E7CD-4CAD-97D5-4ABC43059CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA14CDF-BAB7-431F-A6C4-ADBFB7253DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,47 +319,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +766,7 @@
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -786,15 +783,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -812,7 +809,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3">
-        <f>B2+2</f>
+        <f t="shared" ref="E2:E17" si="0">B2+2</f>
         <v>45309</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -826,15 +823,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B18" si="0">B2+7</f>
+        <f t="shared" ref="B3:B18" si="1">B2+7</f>
         <v>45314</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
-        <f>B3+2</f>
+        <f t="shared" si="0"/>
         <v>45316</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -850,15 +847,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45321</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3">
-        <f>B4+2</f>
+        <f t="shared" si="0"/>
         <v>45323</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -874,15 +871,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45328</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3">
-        <f>B5+2</f>
+        <f t="shared" si="0"/>
         <v>45330</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -898,15 +895,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45335</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3">
-        <f>B6+2</f>
+        <f t="shared" si="0"/>
         <v>45337</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -922,18 +919,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45342</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3">
-        <f>B7+2</f>
+        <f t="shared" si="0"/>
         <v>45344</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2"/>
@@ -944,15 +941,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45349</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3">
-        <f>B8+2</f>
+        <f t="shared" si="0"/>
         <v>45351</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -968,15 +965,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45356</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3">
-        <f>B9+2</f>
+        <f t="shared" si="0"/>
         <v>45358</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -992,15 +989,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45363</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3">
-        <f>B10+2</f>
+        <f t="shared" si="0"/>
         <v>45365</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1016,53 +1013,53 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45370</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3">
-        <f>B11+2</f>
+        <f t="shared" si="0"/>
         <v>45372</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="27.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16">
+        <f t="shared" si="1"/>
+        <v>45377</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>45377</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20">
-        <f>B12+2</f>
         <v>45379</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="27.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45384</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3">
-        <f>B13+2</f>
+        <f t="shared" si="0"/>
         <v>45386</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1078,15 +1075,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45391</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3">
-        <f>B14+2</f>
+        <f t="shared" si="0"/>
         <v>45393</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1102,15 +1099,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45398</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3">
-        <f>B15+2</f>
+        <f t="shared" si="0"/>
         <v>45400</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1126,15 +1123,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45405</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3">
-        <f>B16+2</f>
+        <f t="shared" si="0"/>
         <v>45407</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1150,15 +1147,15 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45412</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3">
-        <f>B17+2</f>
+        <f t="shared" si="0"/>
         <v>45414</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1170,10 +1167,9 @@
     <row r="18" spans="1:8" ht="27.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>45419</v>
-      </c>
-      <c r="C18" s="24" t="s">
+        <v>45416</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="2"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">P2</t>
   </si>
   <si>
+    <t xml:space="preserve">W3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longitudinal Trim and Stability (2.4)</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t xml:space="preserve">Longitudinal Linear Model (4.9-4.10)</t>
   </si>
   <si>
-    <t xml:space="preserve">W3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Modes (6.2)</t>
   </si>
   <si>
@@ -97,13 +97,16 @@
     <t xml:space="preserve">P3</t>
   </si>
   <si>
+    <t xml:space="preserve">W4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longitudinal Control (7.1-7.7)</t>
   </si>
   <si>
     <t xml:space="preserve">Lateral Forces and Moments</t>
   </si>
   <si>
-    <t xml:space="preserve">W4</t>
+    <t xml:space="preserve">W5</t>
   </si>
   <si>
     <t xml:space="preserve">Exam 2</t>
@@ -127,7 +130,7 @@
     <t xml:space="preserve">Lateral Stability Augmentation (7.8-7.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">W5</t>
+    <t xml:space="preserve">W6</t>
   </si>
   <si>
     <t xml:space="preserve">Lateral Guidance and Control (8.1-8.9)</t>
@@ -136,7 +139,7 @@
     <t xml:space="preserve">Introduction to Optimal Control (LQR)</t>
   </si>
   <si>
-    <t xml:space="preserve">W6</t>
+    <t xml:space="preserve">W7</t>
   </si>
   <si>
     <t xml:space="preserve">Human Factors (1.3-1.5)</t>
@@ -434,20 +437,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.54"/>
   </cols>
@@ -584,6 +587,12 @@
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -594,7 +603,7 @@
         <v>45342</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="n">
@@ -602,7 +611,7 @@
         <v>45344</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -616,7 +625,7 @@
         <v>45349</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="n">
@@ -624,11 +633,17 @@
         <v>45351</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -654,6 +669,12 @@
       <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -664,7 +685,7 @@
         <v>45363</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="n">
@@ -672,11 +693,17 @@
         <v>45365</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -688,7 +715,7 @@
         <v>45370</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="n">
@@ -696,7 +723,7 @@
         <v>45372</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -726,7 +753,7 @@
         <v>45384</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="n">
@@ -734,11 +761,17 @@
         <v>45386</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -750,7 +783,7 @@
         <v>45391</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="n">
@@ -758,11 +791,17 @@
         <v>45393</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -774,7 +813,7 @@
         <v>45398</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="n">
@@ -782,11 +821,14 @@
         <v>45400</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -798,7 +840,7 @@
         <v>45405</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="n">
@@ -806,11 +848,14 @@
         <v>45407</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -822,7 +867,7 @@
         <v>45412</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="n">
@@ -830,7 +875,7 @@
         <v>45414</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -841,7 +886,7 @@
         <v>45416</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
@@ -70,85 +70,82 @@
     <t xml:space="preserve">Longitudinal Forces and Moments (2.1-2.3)</t>
   </si>
   <si>
+    <t xml:space="preserve">W3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Trim and Stability (2.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Stability Derivatives (5.1-5.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Linear Model (4.9-4.10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2</t>
   </si>
   <si>
-    <t xml:space="preserve">W3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Trim and Stability (2.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Stability Derivatives (5.1-5.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Linear Model (4.9-4.10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Modes (6.2)</t>
   </si>
   <si>
     <t xml:space="preserve">Mode Approximations (6.3)</t>
   </si>
   <si>
+    <t xml:space="preserve">W4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Control (7.1-7.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral Forces and Moments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihedral Effect (5.6-5.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinated Turn (3.8-3.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral Modes (6.7)</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3</t>
   </si>
   <si>
-    <t xml:space="preserve">W4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Control (7.1-7.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateral Forces and Moments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dihedral Effect (5.6-5.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinated Turn (3.8-3.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateral Modes (6.7)</t>
+    <t xml:space="preserve">Lateral Modal Approximations (6.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral Stability Augmentation (7.8-7.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral Guidance and Control (8.1-8.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Optimal Control (LQR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Factors (1.3-1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmosphere and Wind (6.9)</t>
   </si>
   <si>
     <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateral Modal Approximations (6.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateral Stability Augmentation (7.8-7.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lateral Guidance and Control (8.1-8.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Optimal Control (LQR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Factors (1.3-1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmosphere and Wind (6.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
   </si>
   <si>
     <t xml:space="preserve">Review</t>
@@ -275,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +318,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,10 +438,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,12 +588,6 @@
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -603,7 +598,7 @@
         <v>45342</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="n">
@@ -611,7 +606,7 @@
         <v>45344</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -625,7 +620,7 @@
         <v>45349</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="n">
@@ -633,18 +628,13 @@
         <v>45351</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -666,15 +656,10 @@
         <v>23</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -685,26 +670,21 @@
         <v>45363</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="n">
         <f aca="false">B10+2</f>
         <v>45365</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -714,35 +694,35 @@
         <f aca="false">B10+7</f>
         <v>45370</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="n">
         <f aca="false">B11+2</f>
         <v>45372</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="n">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="n">
         <f aca="false">B11+7</f>
         <v>45377</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="n">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="n">
         <f aca="false">B12+2</f>
         <v>45379</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -752,27 +732,22 @@
         <f aca="false">B12+7</f>
         <v>45384</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>31</v>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="n">
         <f aca="false">B13+2</f>
         <v>45386</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -782,27 +757,22 @@
         <f aca="false">B13+7</f>
         <v>45391</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>34</v>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="n">
         <f aca="false">B14+2</f>
         <v>45393</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -812,24 +782,22 @@
         <f aca="false">B14+7</f>
         <v>45398</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
+      <c r="C15" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="n">
         <f aca="false">B15+2</f>
         <v>45400</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -839,24 +807,22 @@
         <f aca="false">B15+7</f>
         <v>45405</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
+      <c r="C16" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="n">
         <f aca="false">B16+2</f>
         <v>45407</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -866,8 +832,8 @@
         <f aca="false">B16+7</f>
         <v>45412</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>43</v>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="n">
@@ -875,7 +841,7 @@
         <v>45414</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -885,8 +851,8 @@
       <c r="B18" s="4" t="n">
         <v>45416</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -895,16 +861,16 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Longitudinal Control (7.1-7.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Forces and Moments</t>
+    <t xml:space="preserve">Snow day</t>
   </si>
   <si>
     <t xml:space="preserve">W5</t>
@@ -109,7 +109,23 @@
     <t xml:space="preserve">Exam 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Dihedral Effect (5.6-5.9)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lateral Forces, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dihedral Effect (5.6-5.9)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Coordinated Turn (3.8-3.13)</t>
@@ -162,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,6 +206,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -272,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,23 +346,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,10 +467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,22 +736,24 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="n">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16" t="n">
         <f aca="false">B11+7</f>
         <v>45377</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17" t="n">
+      <c r="D12" s="13"/>
+      <c r="E12" s="16" t="n">
         <f aca="false">B12+2</f>
         <v>45379</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -732,7 +763,7 @@
         <f aca="false">B12+7</f>
         <v>45384</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2"/>
@@ -740,7 +771,7 @@
         <f aca="false">B13+2</f>
         <v>45386</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="2"/>
@@ -765,7 +796,7 @@
         <f aca="false">B14+2</f>
         <v>45393</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2"/>
@@ -790,7 +821,7 @@
         <f aca="false">B15+2</f>
         <v>45400</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="2"/>
@@ -815,7 +846,7 @@
         <f aca="false">B16+2</f>
         <v>45407</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="2"/>
@@ -832,7 +863,7 @@
         <f aca="false">B16+7</f>
         <v>45412</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
@@ -851,7 +882,7 @@
       <c r="B18" s="4" t="n">
         <v>45416</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2"/>
@@ -861,16 +892,16 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
+      <c r="B22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -109,23 +109,7 @@
     <t xml:space="preserve">Exam 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lateral Forces, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dihedral Effect (5.6-5.9)</t>
-    </r>
+    <t xml:space="preserve">Lateral Forces, Dihedral Effect (5.6-5.9)</t>
   </si>
   <si>
     <t xml:space="preserve">Coordinated Turn (3.8-3.13)</t>
@@ -140,25 +124,25 @@
     <t xml:space="preserve">Lateral Modal Approximations (6.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Stability Augmentation (7.8-7.12)</t>
+    <t xml:space="preserve">Lat. Control and Transfer Functions (7.8-7.12)</t>
   </si>
   <si>
     <t xml:space="preserve">W6</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Guidance and Control (8.1-8.9)</t>
+    <t xml:space="preserve">Automatic Flight Control Systems (I) (8.1-8.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Flight Control Systems (II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W7</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to Optimal Control (LQR)</t>
   </si>
   <si>
-    <t xml:space="preserve">W7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Factors (1.3-1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmosphere and Wind (6.9)</t>
+    <t xml:space="preserve">Human Factors, Wind (1.3-1.5, 6.9)</t>
   </si>
   <si>
     <t xml:space="preserve">P4</t>
@@ -362,15 +346,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,7 +454,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,7 +747,7 @@
         <f aca="false">B12+7</f>
         <v>45384</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2"/>
@@ -771,7 +755,7 @@
         <f aca="false">B13+2</f>
         <v>45386</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="2"/>
@@ -796,7 +780,7 @@
         <f aca="false">B14+2</f>
         <v>45393</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2"/>
@@ -821,7 +805,7 @@
         <f aca="false">B15+2</f>
         <v>45400</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="2"/>
@@ -838,7 +822,7 @@
         <f aca="false">B15+7</f>
         <v>45405</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -139,10 +139,10 @@
     <t xml:space="preserve">W7</t>
   </si>
   <si>
+    <t xml:space="preserve">Automatic Flight Control Systems (III)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduction to Optimal Control (LQR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Factors, Wind (1.3-1.5, 6.9)</t>
   </si>
   <si>
     <t xml:space="preserve">P4</t>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,11 +190,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -277,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,14 +346,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +441,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -822,7 +809,7 @@
         <f aca="false">B15+7</f>
         <v>45405</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2"/>
@@ -830,7 +817,7 @@
         <f aca="false">B16+2</f>
         <v>45407</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="2"/>
@@ -847,7 +834,7 @@
         <f aca="false">B16+7</f>
         <v>45412</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
@@ -866,7 +853,7 @@
       <c r="B18" s="4" t="n">
         <v>45416</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2"/>
@@ -876,16 +863,16 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">HW Due</t>
   </si>
   <si>
-    <t xml:space="preserve">No Class (Late Start)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction and Nomenclature</t>
   </si>
   <si>
@@ -43,75 +40,81 @@
     <t xml:space="preserve">Kinematics (4.1, 4.4)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dynamics and Quadrotors (4.2-4.3,4.5,4.7)</t>
+  </si>
+  <si>
     <t xml:space="preserve">W1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamics and Quadrotors (4.2-4.3,4.5,4.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linearizing Dynamic Systems</t>
+    <t xml:space="preserve">Quadrotor Linear Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solutions to Linear ODEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">P1</t>
   </si>
   <si>
-    <t xml:space="preserve">No Class (Instructor Travel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrotor stabilization and control</t>
+    <t xml:space="preserve">Quadrotor Control I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrotor Control II</t>
   </si>
   <si>
     <t xml:space="preserve">W2</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrotor Guidance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Forces and Moments (2.1-2.3)</t>
   </si>
   <si>
+    <t xml:space="preserve">Exam 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Trim and Stability (2.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Stability Derivatives (5.1-5.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Linear Model (4.9-4.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Modes (6.2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">W3</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitudinal Trim and Stability (2.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Stability Derivatives (5.1-5.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Linear Model (4.9-4.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Modes (6.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode Approximations (6.3)</t>
+    <t xml:space="preserve">Guest: Sean Humbert: Flight in Nature (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest: Mark Boyer on Human Factors</t>
   </si>
   <si>
     <t xml:space="preserve">W4</t>
   </si>
   <si>
+    <t xml:space="preserve">Longitudinal Mode Approximations (6.3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longitudinal Control (7.1-7.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow day</t>
-  </si>
-  <si>
     <t xml:space="preserve">W5</t>
   </si>
   <si>
+    <t xml:space="preserve">Lateral Forces, Dihedral Effect (5.6-5.9)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exam 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Forces, Dihedral Effect (5.6-5.9)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coordinated Turn (3.8-3.13)</t>
   </si>
   <si>
@@ -151,16 +154,17 @@
     <t xml:space="preserve">Review</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Exam 7:30-10pm</t>
+    <t xml:space="preserve">Final Exam 1:30 – 4 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -201,12 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
@@ -221,6 +219,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,7 +297,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,11 +317,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,43 +377,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,10 +477,10 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.69"/>
@@ -477,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>45307</v>
+        <v>45671</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -485,13 +521,14 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="n">
         <f aca="false">B2+2</f>
-        <v>45309</v>
+        <v>45673</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -499,15 +536,15 @@
       </c>
       <c r="B3" s="4" t="n">
         <f aca="false">B2+7</f>
-        <v>45314</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>45678</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="n">
         <f aca="false">B3+2</f>
-        <v>45316</v>
+        <v>45680</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>6</v>
@@ -516,6 +553,7 @@
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -523,23 +561,26 @@
       </c>
       <c r="B4" s="4" t="n">
         <f aca="false">B3+7</f>
-        <v>45321</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>45685</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="n">
         <f aca="false">B4+2</f>
-        <v>45323</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>45687</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -547,23 +588,24 @@
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">B4+7</f>
-        <v>45328</v>
+        <v>45692</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="n">
         <f aca="false">B5+2</f>
-        <v>45330</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>45694</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -571,23 +613,21 @@
       </c>
       <c r="B6" s="4" t="n">
         <f aca="false">B5+7</f>
-        <v>45335</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>45699</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="n">
         <f aca="false">B6+2</f>
-        <v>45337</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>45701</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -595,21 +635,23 @@
       </c>
       <c r="B7" s="4" t="n">
         <f aca="false">B6+7</f>
-        <v>45342</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>45706</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="n">
         <f aca="false">B7+2</f>
-        <v>45344</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>45708</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -617,22 +659,22 @@
       </c>
       <c r="B8" s="4" t="n">
         <f aca="false">B7+7</f>
-        <v>45349</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>45713</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="n">
         <f aca="false">B8+2</f>
-        <v>45351</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>45715</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="12" t="s">
-        <v>21</v>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -642,22 +684,26 @@
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B8+7</f>
-        <v>45356</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>45720</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="4" t="n">
         <f aca="false">B9+2</f>
-        <v>45358</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="12" t="s">
+        <v>45722</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -667,22 +713,22 @@
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B9+7</f>
-        <v>45363</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>45727</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="n">
         <f aca="false">B10+2</f>
-        <v>45365</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>26</v>
+        <v>45729</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="12" t="s">
-        <v>27</v>
+      <c r="H10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -692,39 +738,39 @@
       </c>
       <c r="B11" s="4" t="n">
         <f aca="false">B10+7</f>
-        <v>45370</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>45734</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="n">
         <f aca="false">B11+2</f>
-        <v>45372</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
+        <v>45736</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16" t="n">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="n">
         <f aca="false">B11+7</f>
-        <v>45377</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="n">
         <f aca="false">B12+2</f>
-        <v>45379</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="17"/>
+        <v>45743</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -732,22 +778,22 @@
       </c>
       <c r="B13" s="4" t="n">
         <f aca="false">B12+7</f>
-        <v>45384</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>30</v>
+        <v>45748</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="n">
         <f aca="false">B13+2</f>
-        <v>45386</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>31</v>
+        <v>45750</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="12" t="s">
-        <v>32</v>
+      <c r="H13" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -757,22 +803,22 @@
       </c>
       <c r="B14" s="4" t="n">
         <f aca="false">B13+7</f>
-        <v>45391</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
+        <v>45755</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="n">
         <f aca="false">B14+2</f>
-        <v>45393</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>34</v>
+        <v>45757</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="12" t="s">
-        <v>35</v>
+      <c r="H14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I14" s="0"/>
     </row>
@@ -782,22 +828,22 @@
       </c>
       <c r="B15" s="4" t="n">
         <f aca="false">B14+7</f>
-        <v>45398</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>36</v>
+        <v>45762</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="n">
         <f aca="false">B15+2</f>
-        <v>45400</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>37</v>
+        <v>45764</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="12" t="s">
-        <v>38</v>
+      <c r="H15" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I15" s="0"/>
     </row>
@@ -807,22 +853,22 @@
       </c>
       <c r="B16" s="4" t="n">
         <f aca="false">B15+7</f>
-        <v>45405</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>39</v>
+        <v>45769</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="n">
         <f aca="false">B16+2</f>
-        <v>45407</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
+        <v>45771</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
+      <c r="H16" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -832,18 +878,18 @@
       </c>
       <c r="B17" s="4" t="n">
         <f aca="false">B16+7</f>
-        <v>45412</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>42</v>
+        <v>45776</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="n">
         <f aca="false">B17+2</f>
-        <v>45414</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>45778</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -851,28 +897,28 @@
     <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="n">
-        <v>45416</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>43</v>
+        <v>45415</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
+      <c r="B20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
+      <c r="B21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
+      <c r="B22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -880,11 +926,11 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>